--- a/results/RUSUDI GULO.xlsx
+++ b/results/RUSUDI GULO.xlsx
@@ -67,18 +67,42 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>HERMINA CIRUAS RS</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>KIMIA FARMA KRAMATWATU AP</t>
+  </si>
+  <si>
+    <t>GASTROLAN 30 MG KAPSUL</t>
+  </si>
+  <si>
     <t>FATIMAH AP</t>
   </si>
   <si>
     <t>D-VIT SYRUP</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>BUSMIN</t>
   </si>
   <si>
+    <t>GAMA 2 AP</t>
+  </si>
+  <si>
+    <t>VOXIN 500 MG KAPLET</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t>D-VIT FLASH TABLET</t>
+  </si>
+  <si>
     <t>BUCHORI</t>
   </si>
   <si>
@@ -86,30 +110,6 @@
   </si>
   <si>
     <t>ESTIN DROP 10 ML</t>
-  </si>
-  <si>
-    <t>HERMINA CIRUAS RS</t>
-  </si>
-  <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
-    <t>GAMA 2 AP</t>
-  </si>
-  <si>
-    <t>GASTROLAN 30 MG KAPSUL</t>
-  </si>
-  <si>
-    <t>VOXIN 500 MG KAPLET</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t>D-VIT FLASH TABLET</t>
-  </si>
-  <si>
-    <t>KIMIA FARMA KRAMATWATU AP</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -824,13 +824,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>30000</v>
+        <v>138000</v>
       </c>
       <c r="G12" s="11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H12" s="11">
-        <v>600000</v>
+        <v>276000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -840,73 +840,73 @@
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="12">
-        <v>165000</v>
+        <v>138000</v>
       </c>
       <c r="G13" s="12">
         <v>2</v>
       </c>
       <c r="H13" s="12">
-        <v>330000</v>
+        <v>276000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11">
-        <v>52500</v>
+        <v>138000</v>
       </c>
       <c r="G14" s="11">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="11">
-        <v>315000</v>
+        <v>-276000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="12">
-        <v>60000</v>
+        <v>280000</v>
       </c>
       <c r="G15" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="11">
-        <v>138000</v>
+        <v>30000</v>
       </c>
       <c r="G16" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H16" s="11">
-        <v>276000</v>
+        <v>600000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -916,54 +916,54 @@
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="12">
-        <v>138000</v>
+        <v>165000</v>
       </c>
       <c r="G17" s="12">
         <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>276000</v>
+        <v>330000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11">
-        <v>138000</v>
+        <v>280000</v>
       </c>
       <c r="G18" s="11">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
-        <v>-276000</v>
+        <v>840000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="8"/>
       <c r="D19" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F19" s="12">
         <v>280000</v>
       </c>
       <c r="G19" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="12">
-        <v>840000</v>
+        <v>560000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -973,16 +973,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="11">
-        <v>280000</v>
+        <v>750000</v>
       </c>
       <c r="G20" s="11">
         <v>2</v>
       </c>
       <c r="H20" s="11">
-        <v>560000</v>
+        <v>1500000</v>
       </c>
       <c r="I20" s="10"/>
     </row>
@@ -992,16 +992,16 @@
         <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="12">
         <v>750000</v>
       </c>
       <c r="G21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
@@ -1011,16 +1011,16 @@
         <v>19</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="11">
-        <v>750000</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11">
-        <v>750000</v>
+        <v>60000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -1030,16 +1030,16 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="12">
         <v>60000</v>
       </c>
       <c r="G23" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H23" s="12">
-        <v>60000</v>
+        <v>540000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -1049,16 +1049,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="11">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G24" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H24" s="11">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -1068,16 +1068,16 @@
         <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F25" s="12">
-        <v>75000</v>
+        <v>280000</v>
       </c>
       <c r="G25" s="12">
         <v>4</v>
       </c>
       <c r="H25" s="12">
-        <v>300000</v>
+        <v>1120000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
@@ -1087,54 +1087,54 @@
         <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" s="11">
-        <v>280000</v>
+        <v>75000</v>
       </c>
       <c r="G26" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="11">
-        <v>1120000</v>
+        <v>150000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="12">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="G27" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27" s="12">
-        <v>150000</v>
+        <v>315000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="F28" s="11">
-        <v>280000</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="11">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="I28" s="10"/>
     </row>
